--- a/dating-recommendation/RMSE.xlsx
+++ b/dating-recommendation/RMSE.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>1-2</t>
   </si>
@@ -49,25 +49,28 @@
     <t>14-20</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>POPULAR</t>
-  </si>
-  <si>
-    <t>UBCF_jacard</t>
-  </si>
-  <si>
-    <t>IBCF_jacard</t>
-  </si>
-  <si>
-    <t>UBCF_COSINE</t>
   </si>
   <si>
     <t>BASELINE</t>
   </si>
   <si>
-    <t>BELLKOV</t>
+    <t>BELLKOR</t>
+  </si>
+  <si>
+    <t>IBCF_jaccard</t>
+  </si>
+  <si>
+    <t>UBCF_jaccard</t>
+  </si>
+  <si>
+    <t>UBCF_cosine</t>
+  </si>
+  <si>
+    <t>Number of ratings per item</t>
+  </si>
+  <si>
+    <t>&gt;21</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -124,6 +127,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -140,6 +146,1654 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Root</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> mean square error</a:t>
+            </a:r>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>POPULAR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7-8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8-9</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9-11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14-20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>&gt;21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of ratings per item</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$M$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0184839999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4392449999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5075099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.808478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0507730000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3473600000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6055510000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4175260000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.2427389999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7328860000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9800770000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.9318630000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UBCF_jaccard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7-8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8-9</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9-11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14-20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>&gt;21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of ratings per item</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$M$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.6666670000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8484210000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6718320000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.21455</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3820049999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2626029999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4000889999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.924258</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.082484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.699783</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.711376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1850710000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IBCF_jaccard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7-8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8-9</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9-11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14-20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>&gt;21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of ratings per item</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.8689390000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9235540000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6004199999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7476880000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0327400000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8046160000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2642300000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4878749999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5766140000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7291780000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.841844</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.042144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>UBCF_cosine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7-8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8-9</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9-11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14-20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>&gt;21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of ratings per item</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$M$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.8054889999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.491371</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2537180000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5259649999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5597099999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3138990000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5333909999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9431940000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1259130000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7368709999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7662870000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.286314</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BASELINE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7-8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8-9</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9-11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14-20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>&gt;21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of ratings per item</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$7:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.6027370000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3009930000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4504899999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0239289999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3166250000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.4229910000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3695010000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9446460000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1725140000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8081239999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.797879</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5312829999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BELLKOR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$B$1:$M$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1-2</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2-3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3-4</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>4-5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>5-6</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>6-7</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>7-8</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>8-9</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>9-11</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>11-14</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>14-20</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>&gt;21</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Number of ratings per item</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.3277730000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8131460000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0716920000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.60284</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8489979999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7919849999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7413780000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.4187660000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.3995160000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2330190000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.2057280000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6383989999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="284804064"/>
+        <c:axId val="284803504"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="284804064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284803504"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="284803504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="284804064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -429,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -440,292 +2094,312 @@
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>5.0184839999999999</v>
-      </c>
-      <c r="C2">
-        <v>4.4392449999999997</v>
-      </c>
-      <c r="D2">
-        <v>4.5075099999999999</v>
-      </c>
-      <c r="E2">
-        <v>3.808478</v>
-      </c>
-      <c r="F2">
-        <v>4.0507730000000004</v>
-      </c>
-      <c r="G2">
-        <v>3.3473600000000001</v>
-      </c>
-      <c r="H2">
-        <v>3.6055510000000002</v>
-      </c>
-      <c r="I2">
-        <v>3.4175260000000001</v>
-      </c>
-      <c r="J2">
-        <v>3.2427389999999998</v>
-      </c>
-      <c r="K2">
-        <v>2.7328860000000001</v>
-      </c>
-      <c r="L2">
-        <v>2.9800770000000001</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1.9318630000000001</v>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>4.6666670000000003</v>
+        <v>5.0184839999999999</v>
       </c>
       <c r="C3">
-        <v>3.8484210000000001</v>
+        <v>4.4392449999999997</v>
       </c>
       <c r="D3">
-        <v>3.6718320000000002</v>
+        <v>4.5075099999999999</v>
       </c>
       <c r="E3">
-        <v>3.21455</v>
+        <v>3.808478</v>
       </c>
       <c r="F3">
-        <v>3.3820049999999999</v>
+        <v>4.0507730000000004</v>
       </c>
       <c r="G3">
-        <v>3.2626029999999999</v>
+        <v>3.3473600000000001</v>
       </c>
       <c r="H3">
-        <v>3.4000889999999999</v>
+        <v>3.6055510000000002</v>
       </c>
       <c r="I3">
-        <v>2.924258</v>
+        <v>3.4175260000000001</v>
       </c>
       <c r="J3">
-        <v>3.082484</v>
+        <v>3.2427389999999998</v>
       </c>
       <c r="K3">
-        <v>2.699783</v>
+        <v>2.7328860000000001</v>
       </c>
       <c r="L3">
-        <v>2.711376</v>
+        <v>2.9800770000000001</v>
       </c>
       <c r="M3" s="2">
-        <v>2.1850710000000002</v>
+        <v>1.9318630000000001</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4">
-        <v>5.8689390000000001</v>
+        <v>4.6666670000000003</v>
       </c>
       <c r="C4">
-        <v>4.9235540000000002</v>
+        <v>3.8484210000000001</v>
       </c>
       <c r="D4">
-        <v>5.6004199999999997</v>
+        <v>3.6718320000000002</v>
       </c>
       <c r="E4">
-        <v>4.7476880000000001</v>
+        <v>3.21455</v>
       </c>
       <c r="F4">
-        <v>5.0327400000000004</v>
+        <v>3.3820049999999999</v>
       </c>
       <c r="G4">
-        <v>4.8046160000000002</v>
+        <v>3.2626029999999999</v>
       </c>
       <c r="H4">
-        <v>5.2642300000000004</v>
+        <v>3.4000889999999999</v>
       </c>
       <c r="I4">
-        <v>4.4878749999999998</v>
+        <v>2.924258</v>
       </c>
       <c r="J4">
-        <v>4.5766140000000002</v>
+        <v>3.082484</v>
       </c>
       <c r="K4">
-        <v>4.7291780000000001</v>
+        <v>2.699783</v>
       </c>
       <c r="L4">
-        <v>3.841844</v>
+        <v>2.711376</v>
       </c>
       <c r="M4" s="2">
-        <v>3.042144</v>
+        <v>2.1850710000000002</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>5.8054889999999997</v>
+        <v>5.8689390000000001</v>
       </c>
       <c r="C5">
-        <v>4.491371</v>
+        <v>4.9235540000000002</v>
       </c>
       <c r="D5">
-        <v>4.2537180000000001</v>
+        <v>5.6004199999999997</v>
       </c>
       <c r="E5">
-        <v>3.5259649999999998</v>
+        <v>4.7476880000000001</v>
       </c>
       <c r="F5">
-        <v>3.5597099999999999</v>
+        <v>5.0327400000000004</v>
       </c>
       <c r="G5">
-        <v>3.3138990000000002</v>
+        <v>4.8046160000000002</v>
       </c>
       <c r="H5">
-        <v>3.5333909999999999</v>
+        <v>5.2642300000000004</v>
       </c>
       <c r="I5">
-        <v>2.9431940000000001</v>
+        <v>4.4878749999999998</v>
       </c>
       <c r="J5">
-        <v>3.1259130000000002</v>
+        <v>4.5766140000000002</v>
       </c>
       <c r="K5">
-        <v>2.7368709999999998</v>
+        <v>4.7291780000000001</v>
       </c>
       <c r="L5">
-        <v>2.7662870000000002</v>
+        <v>3.841844</v>
       </c>
       <c r="M5" s="2">
-        <v>2.286314</v>
+        <v>3.042144</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3">
-        <v>4.6027370000000003</v>
-      </c>
-      <c r="C6" s="3">
-        <v>3.3009930000000001</v>
-      </c>
-      <c r="D6" s="3">
-        <v>3.4504899999999998</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.0239289999999999</v>
-      </c>
-      <c r="F6" s="3">
-        <v>3.3166250000000002</v>
-      </c>
-      <c r="G6" s="3">
-        <v>3.4229910000000001</v>
-      </c>
-      <c r="H6" s="3">
-        <v>3.3695010000000001</v>
-      </c>
-      <c r="I6" s="3">
-        <v>2.9446460000000001</v>
-      </c>
-      <c r="J6" s="3">
-        <v>3.1725140000000001</v>
-      </c>
-      <c r="K6" s="3">
-        <v>2.8081239999999998</v>
-      </c>
-      <c r="L6" s="3">
-        <v>2.797879</v>
-      </c>
-      <c r="M6">
-        <v>1.5312829999999999</v>
+      <c r="B6">
+        <v>5.8054889999999997</v>
+      </c>
+      <c r="C6">
+        <v>4.491371</v>
+      </c>
+      <c r="D6">
+        <v>4.2537180000000001</v>
+      </c>
+      <c r="E6">
+        <v>3.5259649999999998</v>
+      </c>
+      <c r="F6">
+        <v>3.5597099999999999</v>
+      </c>
+      <c r="G6">
+        <v>3.3138990000000002</v>
+      </c>
+      <c r="H6">
+        <v>3.5333909999999999</v>
+      </c>
+      <c r="I6">
+        <v>2.9431940000000001</v>
+      </c>
+      <c r="J6">
+        <v>3.1259130000000002</v>
+      </c>
+      <c r="K6">
+        <v>2.7368709999999998</v>
+      </c>
+      <c r="L6">
+        <v>2.7662870000000002</v>
+      </c>
+      <c r="M6" s="2">
+        <v>2.286314</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>4.6027370000000003</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3.3009930000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3.4504899999999998</v>
+      </c>
+      <c r="E7" s="3">
+        <v>3.0239289999999999</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.3166250000000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3.4229910000000001</v>
+      </c>
+      <c r="H7" s="3">
+        <v>3.3695010000000001</v>
+      </c>
+      <c r="I7" s="3">
+        <v>2.9446460000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3.1725140000000001</v>
+      </c>
+      <c r="K7" s="3">
+        <v>2.8081239999999998</v>
+      </c>
+      <c r="L7" s="3">
+        <v>2.797879</v>
+      </c>
+      <c r="M7">
+        <v>1.5312829999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>3.3277730000000001</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>2.8131460000000001</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D8" s="3">
         <v>3.0716920000000001</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E8" s="3">
         <v>2.60284</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F8" s="3">
         <v>2.8489979999999999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G8" s="3">
         <v>2.7919849999999999</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H8" s="3">
         <v>2.7413780000000001</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I8" s="3">
         <v>2.4187660000000002</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <v>2.3995160000000002</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="3">
         <v>2.2330190000000001</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L8" s="3">
         <v>2.2057280000000001</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>1.6383989999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>